--- a/Figure3/Fig3_2/Regsignificance.xlsx
+++ b/Figure3/Fig3_2/Regsignificance.xlsx
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.002865473016349548</v>
+        <v>0.00278329572406387</v>
       </c>
       <c r="D11">
-        <v>0.01797944052594769</v>
+        <v>0.005848064556827515</v>
       </c>
     </row>
     <row r="12">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.0006510985525292675</v>
+        <v>0.0005600835821548298</v>
       </c>
       <c r="D12">
-        <v>0.006797319740113328</v>
+        <v>0.002417455839753058</v>
       </c>
     </row>
     <row r="13">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.2630429364463589</v>
+        <v>0.2656789574059096</v>
       </c>
       <c r="D13">
-        <v>0.04891997780641222</v>
+        <v>0.1563591286851207</v>
       </c>
     </row>
   </sheetData>
